--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-24T18:49:16+00:00</t>
+    <t>2025-05-24T19:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-24T19:02:35+00:00</t>
+    <t>2025-08-26T11:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T11:44:24+00:00</t>
+    <t>2025-09-10T11:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T11:45:52+00:00</t>
+    <t>2025-09-12T12:35:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T12:35:23+00:00</t>
+    <t>2025-09-12T12:37:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T12:37:07+00:00</t>
+    <t>2025-09-12T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-13T17:40:25+00:00</t>
+    <t>2025-09-18T12:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:15:28+00:00</t>
+    <t>2025-09-30T09:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:52:39+00:00</t>
+    <t>2025-09-30T10:30:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T10:30:37+00:00</t>
+    <t>2025-10-02T08:41:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:41:08+00:00</t>
+    <t>2025-10-02T08:41:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:41:42+00:00</t>
+    <t>2025-10-02T08:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:45:20+00:00</t>
+    <t>2025-10-02T11:14:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:14:42+00:00</t>
+    <t>2025-10-02T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:43:18+00:00</t>
+    <t>2025-10-02T12:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:45:21+00:00</t>
+    <t>2025-10-04T20:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-04T20:30:12+00:00</t>
+    <t>2025-10-06T07:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:28:15+00:00</t>
+    <t>2025-10-07T11:27:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/ValueSet-kommunenummer-alle.xlsx
+++ b/currentbuild/ValueSet-kommunenummer-alle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:19+00:00</t>
+    <t>2025-11-21T14:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
